--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -451,1359 +451,1839 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5819</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1503</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8780</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>519714</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>84.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>006167</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>德邦乐享生活混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>88.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>006168</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>德邦乐享生活混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>88.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>3.28</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519710</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>77.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000011</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>168001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保中证养老产业指数增强</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006179</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国品质生活混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006882</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006883</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008840</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>德邦大消费混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008841</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>德邦大消费混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011309</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519915</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>470098</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富逆向投资混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519679</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银河主题混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000471</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国城镇发展股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001179</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>德邦大健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000545</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中邮核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>66.06</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>100056</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国低碳环保混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>90.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004868</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>交银施罗德股息优化混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>85.81</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004183</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国产业升级混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>168001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国寿安保中证养老产业指数增强</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>519756</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>87.63</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008132</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鹏华价值驱动混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>008372</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>富国阿尔法两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>84.21</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>008901</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国内需增长混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005004</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>交银施罗德品质升级混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005739</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>富国转型机遇混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1813,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1834,15 +2314,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519714</t>
+          <t>163417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德消费新驱动股票</t>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>339.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163415</t>
+          <t>163406</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全商业模式优选混合(LOF)</t>
+          <t>兴全合润混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>269.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.3247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>400025</t>
+          <t>163415</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方新兴成长混合</t>
+          <t>兴全商业模式优选混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>181.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.8822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003754</t>
+          <t>000011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰普益灵活配置混合A</t>
+          <t>华夏大盘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.90</t>
+          <t>53.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003755</t>
+          <t>510810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰普益灵活配置混合C</t>
+          <t>汇添富中证上海国企ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.90</t>
+          <t>85.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6939</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163406</t>
+          <t>008378</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴全合润混合</t>
+          <t>兴全社会价值三年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>55.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1705</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>010454</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>交银施罗德内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>011099</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>富国价值创造混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4914</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>008901</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>富国内需增长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0594</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001490</t>
+          <t>006179</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富国企创新增长股票</t>
+          <t>富国品质生活混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>24.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510810</t>
+          <t>519915</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富中证上海国企ETF</t>
+          <t>富国消费主题混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009488</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中邮价值精选混合A</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>61.05</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009489</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮价值精选混合C</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>61.05</t>
+          <t>28.14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>010409</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>富国消费精选30股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>25.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005360</t>
+          <t>470098</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇安资产轮动灵活配置混合</t>
+          <t>汇添富逆向投资混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>163417</t>
+          <t>007449</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴全合宜灵活配置混合(LOF)A</t>
+          <t>兴全多维价值混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>21.41</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7793</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005491</t>
+          <t>519714</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴全合宜灵活配置混合(LOF)C</t>
+          <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>150103</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融国企改革灵活配置混合</t>
+          <t>银河银泰混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>340008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>兴全有机增长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6808</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2442,25 +3142,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6803</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6593</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519909</t>
+          <t>005491</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安安顺灵活配置混合</t>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>79.62</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>161818</t>
+          <t>008372</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>银华消费主题混合</t>
+          <t>富国阿尔法两年持有期混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>17.19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000011</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华夏大盘精选混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5819</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>005739</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>富国转型机遇混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>005004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>交银施罗德品质升级混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>80.99</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006167</t>
+          <t>630001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合A</t>
+          <t>华商领先企业混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>006168</t>
+          <t>161818</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>德邦乐享生活混合C</t>
+          <t>银华消费主题混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>84.95</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006179</t>
+          <t>004868</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>富国品质生活混合</t>
+          <t>交银施罗德股息优化混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2816,15 +3646,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>91.68</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>519679</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>银河主题混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>000545</t>
+          <t>001490</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中邮核心竞争力灵活配置混合</t>
+          <t>汇添富国企创新增长股票</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>72.39</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2890,25 +3750,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>340008</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>兴全有机增长混合</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>001749</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>招商中国机遇股票</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>007203</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>银河新动能混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>81.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>006568</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国联安行业领先混合</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>400025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东方主题精选混合</t>
+          <t>东方新兴成长混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>470098</t>
+          <t>000545</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>汇添富逆向投资混合</t>
+          <t>中邮核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010409</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>富国消费精选30股票</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>78.45</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>519642</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>银河大国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006882</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合A</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>006883</t>
+          <t>001179</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰保兴健康消费混合C</t>
+          <t>德邦大健康灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>77.27</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -3254,26 +4244,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010454</t>
+          <t>011100</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>交银施罗德内需增长一年持有期混合</t>
+          <t>富国价值创造混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>78.49</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>8</v>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007203</t>
+          <t>009684</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>银河新动能混合</t>
+          <t>汇添富创新增长一年定期开放混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>83.64</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -3310,26 +4320,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>001179</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>德邦大健康灵活配置混合</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>85.71</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>5</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -3338,26 +4358,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>007449</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>兴全多维价值混合A</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>8</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -3366,26 +4396,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>007450</t>
+          <t>007586</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>兴全多维价值混合C</t>
+          <t>华泰保兴多策略三个月定期开放股票</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>8</v>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3394,26 +4434,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>交银施罗德国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3422,26 +4472,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>007586</t>
+          <t>007450</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华泰保兴多策略三个月定期开放股票</t>
+          <t>兴全多维价值混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -3450,26 +4510,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>006882</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华泰保兴健康消费混合A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3478,26 +4548,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>011098</t>
+          <t>006883</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合C</t>
+          <t>华泰保兴健康消费混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3506,26 +4586,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>011099</t>
+          <t>001457</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>富国价值创造混合A</t>
+          <t>华商新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>10</v>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3534,26 +4624,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>011100</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>富国价值创造混合C</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>10</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -3562,26 +4662,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>东方主题精选混合</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3590,26 +4700,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>5</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3618,26 +4738,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>001457</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华商新常态灵活配置混合</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>6</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3646,26 +4776,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>009488</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>中邮价值精选混合A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>78.59</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>4</v>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3674,26 +4814,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>150103</t>
+          <t>006167</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>银河银泰混合</t>
+          <t>德邦乐享生活混合A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3702,26 +4852,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>001749</t>
+          <t>006568</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>招商中国机遇股票</t>
+          <t>国联安行业领先混合</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>10</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3730,26 +4890,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>519642</t>
+          <t>003754</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>银河大国智造主题灵活配置混合</t>
+          <t>国泰普益灵活配置混合A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>82.57</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -3758,26 +4928,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>519679</t>
+          <t>001850</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>银河主题混合</t>
+          <t>国泰安益灵活配置混合A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>83.06</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>9</v>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3786,26 +4966,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>4</v>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -3814,26 +5004,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>001850</t>
+          <t>011098</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国泰安益灵活配置混合A</t>
+          <t>达诚宜创精选混合C</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>6</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3842,26 +5042,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>004252</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国泰安益灵活配置混合C</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>6</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3870,26 +5080,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>76.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>9</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3898,26 +5118,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>519915</t>
+          <t>000928</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>富国消费主题混合A</t>
+          <t>中融国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>8</v>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3926,26 +5156,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>011309</t>
+          <t>180028</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>富国消费主题混合C</t>
+          <t>银华永祥灵活配置混合</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>8</v>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3954,26 +5194,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>005027</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>6</v>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3982,26 +5232,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>630001</t>
+          <t>009489</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华商领先企业混合</t>
+          <t>中邮价值精选混合C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>80.38</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>10</v>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -4010,26 +5270,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>005027</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>30.59</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>3</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -4038,26 +5308,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>005004</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>7</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -4066,26 +5346,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>7</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4094,26 +5384,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>006168</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>德邦乐享生活混合C</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>7</v>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4122,26 +5422,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>168001</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>国寿安保中证养老产业指数增强</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>4</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -4150,26 +5460,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>008901</t>
+          <t>004252</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>富国内需增长混合</t>
+          <t>国泰安益灵活配置混合C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>5</v>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -4178,26 +5498,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>180028</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>银华永祥灵活配置混合</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>77.84</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>7</v>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -4206,26 +5536,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>004076</t>
+          <t>003755</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>国联安锐意成长混合</t>
+          <t>国泰普益灵活配置混合C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>3</v>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -4234,26 +5574,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>3</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -4262,26 +5612,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>3</v>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4290,26 +5650,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>008372</t>
+          <t>011309</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>富国阿尔法两年持有期混合</t>
+          <t>富国消费主题混合C</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>79.59</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>6</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4318,26 +5688,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>008378</t>
+          <t>005360</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>兴全社会价值三年持有期混合</t>
+          <t>汇安资产轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>88.20</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>3</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4346,26 +5726,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>004868</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>交银施罗德股息优化混合</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>8</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4374,26 +5764,36 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>168001</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>国寿安保中证养老产业指数增强</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>8</v>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -4402,26 +5802,36 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>10</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4430,26 +5840,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>10</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -4458,26 +5878,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>3</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -4486,26 +5916,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5951,4 +5952,2074 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>360.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.8984</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.8739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9705</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1917</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1500</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1237</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9472</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8657</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8490</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8182</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7976</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7907</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7773</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7315</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8022,4 +8023,1808 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7744</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8648</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6707</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3875</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0988</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7552</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7160</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5439</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9827,4 +9828,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9836,7 +9837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9847,17 +9848,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9867,14 +9888,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.7</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.4249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9883,14 +9926,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.77</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.8553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9899,14 +9964,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>95</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.42</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9915,13 +10002,2695 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6846</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4591</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1971</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8370</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2700</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0511</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0315</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6824</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6671</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6624</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3288</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>43.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>47</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>22.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12589,7 +12590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12600,17 +12601,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12620,14 +12641,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86.64</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12636,14 +12679,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.7</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12652,14 +12717,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65.77</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12668,14 +12755,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>95</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65.42</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -12684,13 +12793,3321 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0866</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6956</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4717</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4630</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2671</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1149</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0774</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9680</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9439</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8745</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8711</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6380</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4793</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>47</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>22.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15990,7 +15991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16001,17 +16002,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16021,14 +16042,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>78.16</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.2560</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -16037,14 +16080,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86.64</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2434</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -16053,14 +16118,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.7</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -16069,14 +16156,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65.77</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -16085,14 +16194,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>95</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65.42</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -16101,13 +16232,5495 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>63.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5834</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2861</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0782</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9802</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8177</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6930</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4702</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4362</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3616</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3091</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2575</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2416</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2331</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1211</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1016</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0269</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9679</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9247</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8867</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8813</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7168</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3826</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3749</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3556</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>22.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
+++ b/数据整理/stocks/A股/上证主板/600754-锦江酒店.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D2" t="n">
-        <v>103.06</v>
+        <v>76.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D3" t="n">
-        <v>78.16</v>
+        <v>103.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>86.64</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
-        <v>56.7</v>
+        <v>86.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>65.77</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>65.42</v>
+        <v>65.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>47</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>22.44</v>
       </c>
     </row>
@@ -600,6 +617,6662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7613</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0476</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安宏利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4775</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4674</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2405</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2364</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1993</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1310</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0683</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安生态优先混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8746</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8643</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8098</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7900</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7539</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014177</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014977</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安生态优先混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014773</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安品质领先混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012147</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国大盘核心资产混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014774</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安品质领先混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014178</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华安景气驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>39.66</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>57.70</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>016294</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华安宏利混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6195,7 +12868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9595,7 +16268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12347,7 +19020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14151,7 +20824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16221,7 +22894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19887,7 +26560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
